--- a/dataframe/review_data.xlsx
+++ b/dataframe/review_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21037" windowHeight="8265"/>
+    <workbookView windowWidth="10237" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
   <si>
     <t>シンゴジラ(60579)</t>
   </si>
@@ -46,13 +46,13 @@
     <t>ウエストサイドストーリー(81473)</t>
   </si>
   <si>
-    <t>テリファー(74170)</t>
-  </si>
-  <si>
-    <t>レプリカズ(76720)</t>
-  </si>
-  <si>
-    <t>デイシフト(100107)</t>
+    <t>マリグナント（88639）</t>
+  </si>
+  <si>
+    <t>イコライザー（56537）</t>
+  </si>
+  <si>
+    <t>グレムリン（11304）</t>
   </si>
   <si>
     <t>孤狼の血(72802)</t>
@@ -148,68 +148,56 @@
 2時間半を楽しませるのは流石スピルバーグといったところだが、ラストの虚しい余韻によって考えさせる終焉を迎える。</t>
   </si>
   <si>
-    <t>キアヌは結構SFには出ているが、ヒットしたのはマトリックスだけであり、それ以外は微妙な出来。
-何よりもいきなり死んだ人間を復活させるという点からスタートさせている無謀さ。
-こういういい加減さがキアヌらしいというか。
-すべてが予想できる範囲内で収まるわけで、死体を復活させるという方法をマッドサイエンティストとしては認めない。
-そういう苦悩をまったく感じられない演技。
-「チェーン・リアクション」とかもそうだけど、壮大すぎる事柄をキアヌは勢いで乗り切ろうとする作品が多い。
-その意味でキアヌらしいし、見た後何も残らないと（笑）</t>
-  </si>
-  <si>
-    <t>ヴァンパイア・ハンターのバドは娘との関係性を取り戻すべく金が必要になる。
-そこで組合に登録し、昼勤務となってヴァンパイア退治に臨むことに。
-話自体はほとんど単純だし、この内容で2時間近くは確かに長い。
-とはいえ一連のアクションシークエンスは見れる代物。
-特に中盤での家で展開するヴァンパイアハンターと複数のヴァンパイアとの激闘。
-コンビネーションを含め、監督がアクション出身というのが生かされている。
-カーチェイスも楽しめるが、終盤は随分こじんまりしたアクションだったのは疑問だが。
-続編を明らかに意識しているが、同じジェイミー・フォックスの「プロジェクト・パワー」も実現していないので無さそうな気が。</t>
-  </si>
-  <si>
-    <t>Ren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本人だからこれは見とかないといけないと思った
-</t>
-  </si>
-  <si>
-    <t>フォレスト・ガンプは知能指数が他の人より劣っていて酷い扱いをされていたがそれでも良い人達に巡り会い、自分が一生懸命に動いていたからこその結果が運命として変わるようなそんな人生だったと思う。彼の視点でとても感情が伝わる映画だったと思う。</t>
-  </si>
-  <si>
-    <t>王道だし2人の絶妙な距離と絡み良かった。デンジャーゾーン流れてきて小学校の組体操思い出しました。</t>
-  </si>
-  <si>
-    <t>貧富の差が大きくわかるように細かいところまで描かれている作品で迫力ある絵だった。
-ありさと見た</t>
-  </si>
-  <si>
-    <t>アカデミー賞総ナメしただけの事はあると思うし若レオがカッコよすぎる。こんな生き方できる人は素晴らしい</t>
-  </si>
-  <si>
-    <t>マフィアだいたい家族大事にしがち。登場人物多くて少し大変かもしれないけど最後まで見ると見てよかったと思える愛情が見える。</t>
-  </si>
-  <si>
-    <t>最高にカッコよかった！(800マーク目)</t>
-  </si>
-  <si>
-    <t>キューブリックの作品は面白いな。バックにクラシックを持ってくるあたりもセンス感じるし、60年代に撮った作品とは思わせない創造力がすごい。
-午前十時の映画祭にて鑑賞</t>
-  </si>
-  <si>
-    <t>名作が現代に帰ってきましたね。ミュージカルだからIMAXで見るのがいい。差別があったこと、争いがあったことこれを現代に復活させた意味を鑑賞した皆が捉えられたらいいな。最後のエンドロールも夜が明けていくような演出で名前を出していてこだわってるなと思いました。</t>
-  </si>
-  <si>
-    <t>グロいだけか</t>
-  </si>
-  <si>
-    <t>Netflixすぎる</t>
-  </si>
-  <si>
-    <t>桃李がラジオで言ってたから見た</t>
-  </si>
-  <si>
-    <t>FBI訓練生のクラリスが事件の真相に一人で迫って行くストーリー。ジョディ・フォスターめっちゃ可愛い。作品としてのクオリティも高くホラーサスペンスで最高に面白かった。</t>
+    <t>やはりジェームズ・ワンが作るホラーは他のB級ものと質が格段に違う。
+マディソンが見た夢は悪夢そのもの。
+それが起きたとき現実になるという惨事から、妹や刑事がその原因を探り始める。
+最初から悲惨な事件を見せつけるが、その関係者が医者であり、事件の元となった原因たち。
+そして分かる衝撃の事実。
+あれが出て来た時のインパクトはかなりのものであり、久々に映画館でウオっと声が出た（笑）
+とにかくビジュアルとして驚くし、そこから生まれるアクションは意外でしかなかった。
+終盤に囚人や警官との殺し合いの果て。
+対峙する2人によって物語が完結するという落とし具合も見事なもの。
+やはりジェームズ・ワンのホラー作品に外れなしだ。</t>
+  </si>
+  <si>
+    <t>ここまで強い一般人がいたかと思うほどのキャラだが、デンゼル・ワシントンの演技によって説得力をもたらしている。
+ロバート・マッコールは昼はホームセンター。夜はダイナーで読書をする毎日。
+そのダイナーで知り合った娼婦のテリーを助けたことによって、ロシアンマフィアとの抗争に明け暮れていく。
+アメコミでしか通用しなさそうな非現実的なキャラだが、日本でいう必殺仕事人のように次々と悪を成敗していく様が見もの。
+ホームセンターが舞台というのも面白い。
+ドリルだったりハンマーだったりを武器に仕留めていく。
+クロエ・グレース・モレッツが冒頭とラストだけしか出ないとか、いくら悪とはいえあれだけ警官を殺してお咎めなしだとか色々疑問はある。
+だがそれらはデンゼルの存在感によって吹き消されるのだ。</t>
+  </si>
+  <si>
+    <t>有名なグレムリンを初鑑賞。
+これだけかわいけりゃギズモ人気が出るのは当然ですね。
+しかし冷静にじっくり見たら一瞬ヨーダに見えてしまった(笑)
+グレムリンになってからはやりたい放題。
+強盗の格好させたりビール飲ませてみたり、80年代のスピルバーグはこういう所を見せるのがうまい。
+しかしおもちゃ屋のET人形はやり過ぎですが(笑)
+いいね！
+96
+コメントする
+0</t>
+  </si>
+  <si>
+    <t>かも</t>
+  </si>
+  <si>
+    <t>アカデミー会員たちの外国語映画に対するお慈悲的な意味での受賞かと思いきや、これはマジなやつでした。2020年始まったばかりだけどこれは1位でしょう。新北ギャグ最高でした。韓国人も北の事をネタにするんだなぁ。</t>
+  </si>
+  <si>
+    <t>とにかく長いとしか……。</t>
+  </si>
+  <si>
+    <t>ガブリエルをもっとメインにした後ろ向きスプラッターアクションにした方が良かったのでは？どこらへんがR18なの？後頭部に顔ってハリーポッター思い出したよね。</t>
+  </si>
+  <si>
+    <t>沈黙シリーズ最新作！じゃなかった。セガール映画かと勘違いするぐらい主人公が無双する映画だった。やっぱクロエちゃんは娼婦役なんか似合わない。</t>
+  </si>
+  <si>
+    <t>原作読了後に鑑賞。喉が乾くようなギラついた昭和感がたまらん。ガミさんが日岡に入れ込む理由と中々ライターの火がつけれない日岡がカットされてたのが不満だったけど中々良かった。</t>
   </si>
   <si>
     <t>れじみ</t>
@@ -250,6 +238,9 @@
     <t>本来抗うべき相手を見誤り、差別という最も醜い感情に支配された人間たちの行く末を克明に描く。この悲劇から学ぶものは数多くあるはずだが、60年経っても未だにリメイクされること自体が実に皮肉。撮影の力強さと映像の華々しさには惹かれるが、いまいち乗り切れず。</t>
   </si>
   <si>
+    <t>ジェームズワンの巧みな視線誘導によって齎される恐怖演出が見事だ。若干ワンパターンのきらいはあるがホラー初心者にはこれぐらいがちょうど良い。相変わらず自由自在のカメラワークもとても楽しい。終盤の仕掛けは全く見抜けていなかったので映画的醍醐味を堪能した。</t>
+  </si>
+  <si>
     <t>警察という男性社会で女性へ向けられる視線と一般社会から精神異常者へ向けられる視線との歪な一致。だからこそクラリスとレクター博士は互いが互いの理解者として成立してしまう。圧倒的な存在感で魅せるアンソニーホプキンスは言わずもがな、先が読めない物語にも大いに魅了された。</t>
   </si>
   <si>
@@ -288,13 +279,13 @@
 </t>
   </si>
   <si>
-    <t>ハロウィン・パーティを終え、女2人はダイナーで酔い醒ましをすることにしたが、そこにゴミ袋を担いだピエロメイクの男が現れる。ホラー作。殺人ピエロながらの道化らしい娯楽さがグロ描写、残酷描写によく現れています。被害者も多々おりバリエーション豊か。ちょうど良いスラッシャー・ホラーな展開。</t>
-  </si>
-  <si>
-    <t>神経科学者の男は、突然の事故で家族4人を失ってしまう。絶望の中、彼は家族の身体をクローン化し、意識を移し替え、完璧なレプリカとして蘇らせることに成功する。キアヌ・リーブス主演のSF作。人間のクローン化という禁忌を犯しながら、家族愛を描いた物語は良いが、ドラマ要素が淡々としすぎており、終盤まで描かれてはいるが、家族愛が薄く感じてしまう。加えて、科学者の緊迫感はそれなりにあるが、失った絶望感や、レプリカであることの苦悩などがあまり出てない。全体的に詰めがあまい、ご都合主義が目立つ内容めもある。</t>
-  </si>
-  <si>
-    <t>男は、家族にはプールの清掃員として働いていると話していたが、裏ではヴァンパイアハンターとして吸血鬼を狩っていた。アクション作。展開としては王道さはあるが、アクションの作り込みがよく、一度始まればバラエティ豊かなアクションがあり、娯楽満載。ナイフアクションやガンアクション、カーチェイスと見どころ満載。難しいことは特にない、気軽に観れる痛快アクション作。敵役の魅力は薄い。ジェイミー・フォックスの味がよく出てます。</t>
+    <t>夫と口論をした後、ある夜夫が何者かに襲われ殺され、自身も被害を受けてしまう。その後、生々しい殺人事件を目撃する悪夢を見るようになる。ジェームズ・ワン監督のホラー作。屈指のホラーメーカーながらの序盤の恐怖感は健在で、王道の展開がありながら丁寧な作り込みがある。女性の｢悪夢体験｣が徐々にエスカレートしていき、よくあるホラーの設定を想起させる展開があるが、そこからの監督独特の味が増していく様、ホラー度が急激に上昇していく様は秀逸。ホラー作だが、サスペンスも含み、スリラーも含んでいく等、他ジャンルが融合し昇華していき、抜群に見応えと盛り上がりが増していく展開は最高級の没入感を与え魅力的。80-90年代のホラーな要素も盛り込ませながら、あらゆるジャンルを手掛けてきた監督だからこその、現代ながらの斬新な作り込みが多々散りばめられ、これこそ映画の持つ娯楽要素を含む物語になってます。そして、監督の映画を楽しんでいる様、観る人を楽しませる想いが伝わってくる作品でもある。｢R18+｣指定ながらの容赦のない残酷描写も、より本作を面白く、最高の映える絵を多々出しています。</t>
+  </si>
+  <si>
+    <t>物語の静の部分と、動の部分のﾊﾞﾗﾝｽが良く、ほどよく緩急ついてる感じが面白い。その構成と、ﾃﾞﾝｾﾞﾙ･ﾜｼﾝﾄﾝの独特の優しさの出る演技と、ﾊﾞｲｵﾚﾝｽな演技との相性は抜群。ﾃﾞﾝｾﾞﾙ出演映画で似た役はあるが、幅をさらに効かせた面白いｷｬﾗｸﾀｰになっています。比較的長編作ながら、その長さを感じず、むしろもっと掘り下げてもらっても良いぐらいの作り込まれた作品。大作にはならない作品の雰囲気だが、良作。</t>
+  </si>
+  <si>
+    <t>スティーブン・スピルバーグ制作のSFファンタジー。言わずもがな人気キャラであるモグアイ(ギズモ)とグレムリンを生んだ名作。テンポ良く、エンターテインメント溢れる娯楽映画。ふっと観たくなる愛らしさ満点。スピルバーグや、脚本にクリス・コロンバスが関わっているだけあって、娯楽作品ながらも、教訓的話も盛り込まれた内容。(DVD)</t>
   </si>
   <si>
     <t>昭和63年、暴力団対策成立方成立直前の広島。所轄署に配属になった若手刑事は、暴力団との癒着を噂される刑事と共に、事件の捜査をすることになる。若手刑事と、過激な捜査するベテラン刑事とのアンバランスさがより描写を際立たせている場面が多々あります。ヤクザ映画であり、暴力描写が多種多様にあり、舞台が広島県呉市なだけあり、広島弁がよりヤクザ映画として際立ってます。警察が組との抗争に介入していくのだが、様々な人間模様があり、複雑さがヤクザものとして楽しめる。過激捜査をするベテラン刑事を役所広司が演じているが、まさにハマり役で熱演。法に従順な若手刑事を演じる松坂桃李も良い役をしており、凸凹コンビさに拍車をかけてます。〝男〟たる映画であり、様々な役者がそれぞれの個性で刑事や組員を演じており、見応えのある内容で、様々な生き様が垣間見える物語。</t>
@@ -378,8 +369,16 @@
 </t>
   </si>
   <si>
-    <t>ここ数年で最も酷いかも。
-クローン人間は簡単に造るのに、家族が職場や学校に行けない言い訳で苦労してる(笑)</t>
+    <t>ラスト30分まではホント退屈。
+ガブリエルの正体と動きで帳消しになるけどね(笑)</t>
+  </si>
+  <si>
+    <t>神経質で潔癖症の殺し屋。最高！</t>
+  </si>
+  <si>
+    <t>公開時劇場で。
+ギズモ自分の事可愛いと思ってる感がイラつきます。
+フィービー・ケイツに免じて許しますが。</t>
   </si>
   <si>
     <t>過去観賞。
@@ -503,11 +502,19 @@
     <t>報われない恋</t>
   </si>
   <si>
-    <t>スプラッターはハズレ多いけどこれは嫌いじゃない</t>
-  </si>
-  <si>
-    <t>デイブ・フランコが珍しくギャグキャラでとても良かった
-テンポ良くて見やすい</t>
+    <t>なるほど
+確かに新感覚ホラー
+思ってたのと違ったなぁ
+期待しすぎた感はある</t>
+  </si>
+  <si>
+    <t>最初から最後までホームセンターなのが良かった笑
+デンゼルワシントンがただかっこいい映画</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大好き！！！ギズモかわいい！！！
+ギズモの歌うシーンたまらん
+</t>
   </si>
   <si>
     <t>大好きな映画
@@ -558,6 +565,10 @@
 TONIGHTは鳥肌。ロマンチックの極み。
 ラストは、アウトサイダーのマットディロンのシーンを想い出す。
 ヴァレンティナさん大泣きせすに、最後冷静過ぎたのが、ちょっと違和感。</t>
+  </si>
+  <si>
+    <t>グレムリン、クリスマス映画って感じで、
+ET依頼、可愛らしいぬいぐるみや硬めのソフビを買った記憶。こうくるかーって、変身するグレムリンのインパクト結構あったか。ギズモ飼いたい。</t>
   </si>
   <si>
     <t>それほど怖さはなかった</t>
@@ -644,35 +655,81 @@
     <t>記録</t>
   </si>
   <si>
-    <t>ただの科学者ね
-亡き家族のレプリカ。
-ジョニデの「トランセンデンス」よりストレートにも倫理観崩壊なキアヌ。
-映画としてのエンタメ度はこちらの方が高いかもしれませんが、あまり響くものはありません😁
-これ予算があまりなかったのか映像はイマイチ。まだ最近の映画なんですが。
-後半はキアヌらしさを出したいのかアクションも入ります。ただこれはもっと狭い範囲の話、それこそ家族内の話に留めた方が面白かったのでは？テンポは良かったけど。まぁキアヌらしくいきたかったんでしょうね。
-最終的に破滅の道まっしぐらだと思ったけど、そう終わるのか🤔</t>
+    <t>マッコールさん
+昼はホームセンターで働き、夜はカフェで読書する男。その正体は元CIAエージェント。
+映画的に無敵設定ですね😁
+あまりバックグラウンドについては詳細に語られることはありませんが、生活の中で描かれる所作等に彼らしさが垣間見えます。
+職場では愛嬌よく頼れる人生の先輩。家では出来るだけ無駄がなく質素に、ルーチン化された所作はどことなく脅迫的で孤独的で後悔の念を感じさせる。
+このキャラクターがただのアクションに興じることのない作品に仕上げております😄
+アクションはやはり無敵❗️
+カッコイイです😆
+一瞬の状況判断からスマートに仕事を遂行するまさに職人！
+レストランで敵と相対する場面も迫力で圧倒する雰囲気！負ける気ないでしょ！
+そしてその場にあるものを何でも武器にしますから、ホームセンターなんて宝の山😁密林にランボーみたいなもんです笑！
+デンゼル・ワシントンにしたらこんなおいしい作品ないんじゃないですかね。
+クロエも良かった😊</t>
+  </si>
+  <si>
+    <t>子供の頃は怖かったグレムリン
+今観るとお母さんが怖い😱
+ジョー・ダンテとクリス・コロンバスとスピルバーグが贈るクリスマスプレゼント🎄
+ギズモはほんと可愛いですね〜😍
+可愛いとキモいの対比が絶妙なんですよ！童話的な雰囲気の入りから引き込まれます(^^)テーマ曲も最高🎶
+ちなみにグレムリン、モグワイ、ギズモなど名前で混乱しやすそう…
+モグワイという種別の生き物で、飼われて名付けられたのがギズモ、それが悪モンに変化したのがグレムリンです。
+設定上モグワイは、科学が高度に発展した遠い惑星の科学者がどんな環境でも適応出来る生物を作りだし、地球に送り込んだとのことなんですが……
+日の光が駄目……死んじゃう……
+どことなく頼りない主人公より、包丁を手に様々な方法でグレムリンを血祭りにあげるお母さんの方が戦闘力は高そうですね😁ヒロインのファービー・ケイツももっと活躍して欲しかったです！
+何事もルールは大事。生き物を飼うことは責任も背負うってこと。
+けど水は難しそうだな😫</t>
   </si>
   <si>
     <t>レクター博士ほど魅力的な悪役はいない</t>
   </si>
   <si>
-    <t>かも</t>
-  </si>
-  <si>
-    <t>アカデミー会員たちの外国語映画に対するお慈悲的な意味での受賞かと思いきや、これはマジなやつでした。2020年始まったばかりだけどこれは1位でしょう。新北ギャグ最高でした。韓国人も北の事をネタにするんだなぁ。</t>
-  </si>
-  <si>
-    <t>とにかく長いとしか……。</t>
-  </si>
-  <si>
-    <t>近年稀に見るゴア描写。女の人のアレをアレしてアレしながら踊ってる姿はペニーワイズの怖さを軽く超えてるわ。</t>
-  </si>
-  <si>
-    <t>カリフォルニアラブから始まる映画は間違いない。なんちゃら兄弟の弾一発だけリロードが映画史に残るカッコ良さ。
-ウェッサイ4ライフ！</t>
-  </si>
-  <si>
-    <t>原作読了後に鑑賞。喉が乾くようなギラついた昭和感がたまらん。ガミさんが日岡に入れ込む理由と中々ライターの火がつけれない日岡がカットされてたのが不満だったけど中々良かった。</t>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本人だからこれは見とかないといけないと思った
+</t>
+  </si>
+  <si>
+    <t>フォレスト・ガンプは知能指数が他の人より劣っていて酷い扱いをされていたがそれでも良い人達に巡り会い、自分が一生懸命に動いていたからこその結果が運命として変わるようなそんな人生だったと思う。彼の視点でとても感情が伝わる映画だったと思う。</t>
+  </si>
+  <si>
+    <t>王道だし2人の絶妙な距離と絡み良かった。デンジャーゾーン流れてきて小学校の組体操思い出しました。</t>
+  </si>
+  <si>
+    <t>貧富の差が大きくわかるように細かいところまで描かれている作品で迫力ある絵だった。
+ありさと見た</t>
+  </si>
+  <si>
+    <t>アカデミー賞総ナメしただけの事はあると思うし若レオがカッコよすぎる。こんな生き方できる人は素晴らしい</t>
+  </si>
+  <si>
+    <t>マフィアだいたい家族大事にしがち。登場人物多くて少し大変かもしれないけど最後まで見ると見てよかったと思える愛情が見える。</t>
+  </si>
+  <si>
+    <t>最高にカッコよかった！(800マーク目)</t>
+  </si>
+  <si>
+    <t>キューブリックの作品は面白いな。バックにクラシックを持ってくるあたりもセンス感じるし、60年代に撮った作品とは思わせない創造力がすごい。
+午前十時の映画祭にて鑑賞</t>
+  </si>
+  <si>
+    <t>名作が現代に帰ってきましたね。ミュージカルだからIMAXで見るのがいい。差別があったこと、争いがあったことこれを現代に復活させた意味を鑑賞した皆が捉えられたらいいな。最後のエンドロールも夜が明けていくような演出で名前を出していてこだわってるなと思いました。</t>
+  </si>
+  <si>
+    <t>愛と正義のためならというメッセージが込められているような気がした</t>
+  </si>
+  <si>
+    <t>お母さんが強すぎるんだよ。これは夏ではなく冬に見ましょう。</t>
+  </si>
+  <si>
+    <t>桃李がラジオで言ってたから見た</t>
+  </si>
+  <si>
+    <t>FBI訓練生のクラリスが事件の真相に一人で迫って行くストーリー。ジョディ・フォスターめっちゃ可愛い。作品としてのクオリティも高くホラーサスペンスで最高に面白かった。</t>
   </si>
 </sst>
 </file>
@@ -709,6 +766,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -731,9 +828,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,37 +838,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,13 +859,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -808,29 +866,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,7 +881,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,6 +917,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -878,24 +941,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -903,144 +1098,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,11 +1126,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1161,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,47 +1204,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,17 +1223,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1174,7 +1231,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,140 +1240,140 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,6 +1384,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1648,10 +1708,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q$1:Q$1048576"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="12.75"/>
@@ -1667,8 +1729,8 @@
     <col min="9" max="9" width="15.8053097345133" customWidth="1"/>
     <col min="10" max="10" width="22.858407079646" customWidth="1"/>
     <col min="11" max="11" width="30.7610619469027" customWidth="1"/>
-    <col min="12" max="12" width="17.3451327433628" customWidth="1"/>
-    <col min="13" max="13" width="17.6106194690265" customWidth="1"/>
+    <col min="12" max="12" width="20.1238938053097" customWidth="1"/>
+    <col min="13" max="13" width="20.5221238938053" customWidth="1"/>
     <col min="14" max="14" width="41.7522123893805" customWidth="1"/>
     <col min="15" max="15" width="18.0619469026549" customWidth="1"/>
     <col min="16" max="16" width="56.4159292035398" customWidth="1"/>
@@ -1749,200 +1811,194 @@
       <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2"/>
+        <v>25</v>
+      </c>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" ht="114.75" spans="1:16">
+    <row r="3" ht="153" spans="1:16">
       <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="3"/>
       <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="P3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:16">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="L4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="409.5" spans="1:16">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" ht="409.5" spans="1:16">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="N6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="P6" s="2"/>
     </row>
     <row r="7" ht="409.5" spans="1:16">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -1952,204 +2008,177 @@
       <c r="M7" s="2"/>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
     </row>
     <row r="8" ht="153" spans="1:16">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="9" ht="216.75" spans="1:16">
       <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="P9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" ht="409.5" spans="1:16">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="P10" s="2" t="s">
+    </row>
+    <row r="11" ht="114.75" spans="1:16">
+      <c r="A11" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="11" ht="153" spans="1:16">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="N11" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
